--- a/va_facility_data_2025-02-20/Mayaguez VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mayaguez%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Mayaguez VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mayaguez%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rcd071d2a96f243bd941b0b25a8df61af"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Red2ce9129dd94dbcbb7a7a795014e30f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb1fed0d1cf3d4707aec884f8d83cc714"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd5ecca41aeee4db79fefd0955d045e56"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R73bef256dc6344c784aa6204e980728e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2cd29e15e04f4f14b77e5a6408f152fa"/>
   </x:sheets>
 </x:workbook>
 </file>
